--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -537,13 +537,13 @@
         <v>0.251994</v>
       </c>
       <c r="H2">
-        <v>0.7559819999999999</v>
+        <v>0.755982</v>
       </c>
       <c r="I2">
-        <v>0.3307492567808494</v>
+        <v>0.3292948740286441</v>
       </c>
       <c r="J2">
-        <v>0.3307492567808493</v>
+        <v>0.3292948740286441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>0.7787510858659998</v>
+        <v>0.4184161294739999</v>
       </c>
       <c r="R2">
-        <v>7.008759772793998</v>
+        <v>3.765745165266</v>
       </c>
       <c r="S2">
-        <v>0.02291623968221637</v>
+        <v>0.01223261234461524</v>
       </c>
       <c r="T2">
-        <v>0.02291623968221637</v>
+        <v>0.01223261234461524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>0.251994</v>
       </c>
       <c r="H3">
-        <v>0.7559819999999999</v>
+        <v>0.755982</v>
       </c>
       <c r="I3">
-        <v>0.3307492567808494</v>
+        <v>0.3292948740286441</v>
       </c>
       <c r="J3">
-        <v>0.3307492567808493</v>
+        <v>0.3292948740286441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
         <v>6.342930978237999</v>
       </c>
       <c r="R3">
-        <v>57.08637880414199</v>
+        <v>57.086378804142</v>
       </c>
       <c r="S3">
-        <v>0.186652871788186</v>
+        <v>0.1854388736948965</v>
       </c>
       <c r="T3">
-        <v>0.186652871788186</v>
+        <v>0.1854388736948966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>0.251994</v>
       </c>
       <c r="H4">
-        <v>0.7559819999999999</v>
+        <v>0.755982</v>
       </c>
       <c r="I4">
-        <v>0.3307492567808494</v>
+        <v>0.3292948740286441</v>
       </c>
       <c r="J4">
-        <v>0.3307492567808493</v>
+        <v>0.3292948740286441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>4.118004133947999</v>
+        <v>4.50217394283</v>
       </c>
       <c r="R4">
-        <v>37.06203720553199</v>
+        <v>40.51956548547</v>
       </c>
       <c r="S4">
-        <v>0.1211801453104469</v>
+        <v>0.1316233879891323</v>
       </c>
       <c r="T4">
-        <v>0.1211801453104469</v>
+        <v>0.1316233879891323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5098943333333333</v>
+        <v>0.5132593333333333</v>
       </c>
       <c r="H5">
-        <v>1.529683</v>
+        <v>1.539778</v>
       </c>
       <c r="I5">
-        <v>0.6692507432191507</v>
+        <v>0.6707051259713558</v>
       </c>
       <c r="J5">
-        <v>0.6692507432191507</v>
+        <v>0.6707051259713558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N5">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q5">
-        <v>1.575754842417889</v>
+        <v>0.8522265755126665</v>
       </c>
       <c r="R5">
-        <v>14.181793581761</v>
+        <v>7.670039179613998</v>
       </c>
       <c r="S5">
-        <v>0.04636959909867137</v>
+        <v>0.02491528551045787</v>
       </c>
       <c r="T5">
-        <v>0.04636959909867137</v>
+        <v>0.02491528551045787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5098943333333333</v>
+        <v>0.5132593333333333</v>
       </c>
       <c r="H6">
-        <v>1.529683</v>
+        <v>1.539778</v>
       </c>
       <c r="I6">
-        <v>0.6692507432191507</v>
+        <v>0.6707051259713558</v>
       </c>
       <c r="J6">
-        <v>0.6692507432191507</v>
+        <v>0.6707051259713558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P6">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q6">
-        <v>12.83453003852478</v>
+        <v>12.91923032004644</v>
       </c>
       <c r="R6">
-        <v>115.510770346723</v>
+        <v>116.273072880418</v>
       </c>
       <c r="S6">
-        <v>0.3776805861456592</v>
+        <v>0.3777003924169892</v>
       </c>
       <c r="T6">
-        <v>0.3776805861456593</v>
+        <v>0.3777003924169893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5098943333333333</v>
+        <v>0.5132593333333333</v>
       </c>
       <c r="H7">
-        <v>1.529683</v>
+        <v>1.539778</v>
       </c>
       <c r="I7">
-        <v>0.6692507432191507</v>
+        <v>0.6707051259713558</v>
       </c>
       <c r="J7">
-        <v>0.6692507432191507</v>
+        <v>0.6707051259713558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N7">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q7">
-        <v>8.332527649639777</v>
+        <v>9.169991334903333</v>
       </c>
       <c r="R7">
-        <v>74.99274884675799</v>
+        <v>82.52992201412999</v>
       </c>
       <c r="S7">
-        <v>0.24520055797482</v>
+        <v>0.2680894480439087</v>
       </c>
       <c r="T7">
-        <v>0.2452005579748201</v>
+        <v>0.2680894480439087</v>
       </c>
     </row>
   </sheetData>
